--- a/UNG_prices_4_11_2022.xlsx
+++ b/UNG_prices_4_11_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianlee/Dropbox/__Blogs-and-Posts/__r_bloggers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88701D-1817-634A-9242-77261FD3A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B88DE-03C0-CB41-AD86-7FCAB1390946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14780" yWindow="9400" windowWidth="24840" windowHeight="13440" xr2:uid="{CD5CB061-877F-3941-B970-830FFE0994BC}"/>
   </bookViews>
